--- a/JupyterNotebooks/AveragedIntensities-SRP/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/RGossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.110972622478386</v>
+        <v>1.112773775216138</v>
       </c>
       <c r="D3">
-        <v>0.8731268011527378</v>
+        <v>0.8828386167146974</v>
       </c>
       <c r="E3">
-        <v>0.9870317002881844</v>
+        <v>0.9821829971181556</v>
       </c>
       <c r="F3">
-        <v>1.110972622478386</v>
+        <v>1.112773775216138</v>
       </c>
       <c r="G3">
-        <v>0.9369596541786743</v>
+        <v>0.943393371757925</v>
       </c>
       <c r="H3">
-        <v>0.9840345821325649</v>
+        <v>0.970814121037464</v>
       </c>
       <c r="I3">
-        <v>1.017399135446686</v>
+        <v>1.014466858789625</v>
       </c>
       <c r="J3">
-        <v>0.8731268011527378</v>
+        <v>0.8828386167146974</v>
       </c>
       <c r="K3">
-        <v>1.110972622478386</v>
+        <v>1.112773775216138</v>
       </c>
       <c r="L3">
-        <v>0.9300792507204612</v>
+        <v>0.9821829971181556</v>
       </c>
       <c r="M3">
-        <v>0.9300792507204612</v>
+        <v>0.9325108069164265</v>
       </c>
       <c r="N3">
-        <v>0.9323727185398655</v>
+        <v>0.9325108069164265</v>
       </c>
       <c r="O3">
-        <v>0.9903770413064361</v>
+        <v>0.9361383285302592</v>
       </c>
       <c r="P3">
-        <v>0.9903770413064361</v>
+        <v>0.9925984630163306</v>
       </c>
       <c r="Q3">
-        <v>1.020525936599424</v>
+        <v>0.9925984630163304</v>
       </c>
       <c r="R3">
-        <v>1.020525936599424</v>
+        <v>1.022642291066282</v>
       </c>
       <c r="S3">
-        <v>0.984920749279539</v>
+        <v>1.022642291066282</v>
+      </c>
+      <c r="T3">
+        <v>0.9844116234390009</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9870718799192091</v>
+        <v>0.9880950006714863</v>
       </c>
       <c r="D4">
-        <v>0.9949204950186865</v>
+        <v>0.9971677660083746</v>
       </c>
       <c r="E4">
-        <v>0.9991923576999209</v>
+        <v>0.997460550650782</v>
       </c>
       <c r="F4">
-        <v>0.9870718799192091</v>
+        <v>0.9880950006714863</v>
       </c>
       <c r="G4">
-        <v>0.9884551538107517</v>
+        <v>0.9907443502281067</v>
       </c>
       <c r="H4">
-        <v>1.014622979784832</v>
+        <v>1.00927673239234</v>
       </c>
       <c r="I4">
-        <v>0.9968490616571004</v>
+        <v>0.9959477656291794</v>
       </c>
       <c r="J4">
-        <v>0.9949204950186865</v>
+        <v>0.9971677660083746</v>
       </c>
       <c r="K4">
-        <v>0.9870718799192091</v>
+        <v>0.9880950006714863</v>
       </c>
       <c r="L4">
-        <v>0.9970564263593037</v>
+        <v>0.997460550650782</v>
       </c>
       <c r="M4">
-        <v>0.9970564263593037</v>
+        <v>0.9973141583295784</v>
       </c>
       <c r="N4">
-        <v>0.9941893355097863</v>
+        <v>0.9973141583295784</v>
       </c>
       <c r="O4">
-        <v>0.9937282442126055</v>
+        <v>0.9951242222957545</v>
       </c>
       <c r="P4">
-        <v>0.9937282442126055</v>
+        <v>0.9942411057768811</v>
       </c>
       <c r="Q4">
-        <v>0.9920641531392564</v>
+        <v>0.9942411057768811</v>
       </c>
       <c r="R4">
-        <v>0.9920641531392564</v>
+        <v>0.9927045795005324</v>
       </c>
       <c r="S4">
-        <v>0.9968519879817501</v>
+        <v>0.9927045795005324</v>
+      </c>
+      <c r="T4">
+        <v>0.9964486942633783</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9832926670576473</v>
+        <v>0.9840075537274647</v>
       </c>
       <c r="D5">
-        <v>0.9947688748223595</v>
+        <v>0.9942423476527059</v>
       </c>
       <c r="E5">
-        <v>1.002240739024351</v>
+        <v>1.002020827077919</v>
       </c>
       <c r="F5">
-        <v>0.9832926670576473</v>
+        <v>0.9840075537274647</v>
       </c>
       <c r="G5">
-        <v>0.984818686262954</v>
+        <v>0.9848882280614535</v>
       </c>
       <c r="H5">
-        <v>1.026994313422825</v>
+        <v>1.026081241052793</v>
       </c>
       <c r="I5">
-        <v>0.9978975583575479</v>
+        <v>0.998139362669812</v>
       </c>
       <c r="J5">
-        <v>0.9947688748223595</v>
+        <v>0.9942423476527059</v>
       </c>
       <c r="K5">
-        <v>0.9832926670576473</v>
+        <v>0.9840075537274647</v>
       </c>
       <c r="L5">
-        <v>0.9985048069233552</v>
+        <v>1.002020827077919</v>
       </c>
       <c r="M5">
-        <v>0.9985048069233552</v>
+        <v>0.9981315873653125</v>
       </c>
       <c r="N5">
-        <v>0.9939427667032215</v>
+        <v>0.9981315873653125</v>
       </c>
       <c r="O5">
-        <v>0.9934340936347859</v>
+        <v>0.9937171342640262</v>
       </c>
       <c r="P5">
-        <v>0.9934340936347859</v>
+        <v>0.9934235761526966</v>
       </c>
       <c r="Q5">
-        <v>0.9908987369905012</v>
+        <v>0.9934235761526966</v>
       </c>
       <c r="R5">
-        <v>0.9908987369905012</v>
+        <v>0.9910695705463887</v>
       </c>
       <c r="S5">
-        <v>0.9983354731579474</v>
+        <v>0.9910695705463887</v>
+      </c>
+      <c r="T5">
+        <v>0.9982299267070246</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9962429153909209</v>
+        <v>0.9971504836593841</v>
       </c>
       <c r="D6">
-        <v>0.9946406782719041</v>
+        <v>0.9928408625209156</v>
       </c>
       <c r="E6">
-        <v>0.9936973841637472</v>
+        <v>0.9938793134274173</v>
       </c>
       <c r="F6">
-        <v>0.9962429153909209</v>
+        <v>0.9971504836593841</v>
       </c>
       <c r="G6">
-        <v>0.9934257624302221</v>
+        <v>0.9926953675046895</v>
       </c>
       <c r="H6">
-        <v>0.9941732030238907</v>
+        <v>0.9944493701623758</v>
       </c>
       <c r="I6">
-        <v>0.9954532843294662</v>
+        <v>0.9958446873361021</v>
       </c>
       <c r="J6">
-        <v>0.9946406782719041</v>
+        <v>0.9928408625209156</v>
       </c>
       <c r="K6">
-        <v>0.9962429153909209</v>
+        <v>0.9971504836593841</v>
       </c>
       <c r="L6">
-        <v>0.9941690312178256</v>
+        <v>0.9938793134274173</v>
       </c>
       <c r="M6">
-        <v>0.9941690312178256</v>
+        <v>0.9933600879741664</v>
       </c>
       <c r="N6">
-        <v>0.9939212749552911</v>
+        <v>0.9933600879741664</v>
       </c>
       <c r="O6">
-        <v>0.9948603259421906</v>
+        <v>0.9931385144843409</v>
       </c>
       <c r="P6">
-        <v>0.9948603259421906</v>
+        <v>0.9946235532025723</v>
       </c>
       <c r="Q6">
-        <v>0.9952059733043732</v>
+        <v>0.9946235532025725</v>
       </c>
       <c r="R6">
-        <v>0.9952059733043732</v>
+        <v>0.9952552858167754</v>
       </c>
       <c r="S6">
-        <v>0.9946055379350253</v>
+        <v>0.9952552858167754</v>
+      </c>
+      <c r="T6">
+        <v>0.9944766807684807</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9915452676288532</v>
+        <v>0.5197175306851636</v>
       </c>
       <c r="D7">
-        <v>0.9973078257196937</v>
+        <v>2.567408096928813</v>
       </c>
       <c r="E7">
-        <v>0.9949511703662497</v>
+        <v>0.6615123080245794</v>
       </c>
       <c r="F7">
-        <v>0.9915452676288532</v>
+        <v>0.5197175306851636</v>
       </c>
       <c r="G7">
-        <v>0.9936346311373494</v>
+        <v>1.791940907618374</v>
       </c>
       <c r="H7">
-        <v>0.999032465003526</v>
+        <v>0.2152412730765806</v>
       </c>
       <c r="I7">
-        <v>0.9952828493922479</v>
+        <v>0.6150759560616786</v>
       </c>
       <c r="J7">
-        <v>0.9973078257196937</v>
+        <v>2.567408096928813</v>
       </c>
       <c r="K7">
-        <v>0.9915452676288532</v>
+        <v>0.5197175306851636</v>
       </c>
       <c r="L7">
-        <v>0.9961294980429717</v>
+        <v>0.6615123080245794</v>
       </c>
       <c r="M7">
-        <v>0.9961294980429717</v>
+        <v>1.614460202476696</v>
       </c>
       <c r="N7">
-        <v>0.9952978757410976</v>
+        <v>1.614460202476696</v>
       </c>
       <c r="O7">
-        <v>0.9946014212382656</v>
+        <v>1.673620437523922</v>
       </c>
       <c r="P7">
-        <v>0.9946014212382656</v>
+        <v>1.249545978546185</v>
       </c>
       <c r="Q7">
-        <v>0.9938373828359125</v>
+        <v>1.249545978546185</v>
       </c>
       <c r="R7">
-        <v>0.9938373828359125</v>
+        <v>1.06708886658093</v>
       </c>
       <c r="S7">
-        <v>0.9952923682079867</v>
+        <v>1.06708886658093</v>
+      </c>
+      <c r="T7">
+        <v>1.061816012065865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9217430670707433</v>
+      </c>
+      <c r="D8">
+        <v>1.282746925950709</v>
+      </c>
+      <c r="E8">
+        <v>0.9058280755210715</v>
+      </c>
+      <c r="F8">
+        <v>0.9217430670707433</v>
+      </c>
+      <c r="G8">
+        <v>1.217755207895157</v>
+      </c>
+      <c r="H8">
+        <v>0.637312924631213</v>
+      </c>
+      <c r="I8">
+        <v>0.9089803550235943</v>
+      </c>
+      <c r="J8">
+        <v>1.282746925950709</v>
+      </c>
+      <c r="K8">
+        <v>0.9217430670707433</v>
+      </c>
+      <c r="L8">
+        <v>0.9058280755210715</v>
+      </c>
+      <c r="M8">
+        <v>1.09428750073589</v>
+      </c>
+      <c r="N8">
+        <v>1.09428750073589</v>
+      </c>
+      <c r="O8">
+        <v>1.135443403122313</v>
+      </c>
+      <c r="P8">
+        <v>1.036772689514175</v>
+      </c>
+      <c r="Q8">
+        <v>1.036772689514175</v>
+      </c>
+      <c r="R8">
+        <v>1.008015283903317</v>
+      </c>
+      <c r="S8">
+        <v>1.008015283903317</v>
+      </c>
+      <c r="T8">
+        <v>0.9790610926820814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.97</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9">
+        <v>0.86</v>
+      </c>
+      <c r="F9">
+        <v>1.97</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.67</v>
+      </c>
+      <c r="I9">
+        <v>1.11</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>1.97</v>
+      </c>
+      <c r="L9">
+        <v>0.86</v>
+      </c>
+      <c r="M9">
+        <v>0.535</v>
+      </c>
+      <c r="N9">
+        <v>0.535</v>
+      </c>
+      <c r="O9">
+        <v>0.57</v>
+      </c>
+      <c r="P9">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="Q9">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="R9">
+        <v>1.2525</v>
+      </c>
+      <c r="S9">
+        <v>1.2525</v>
+      </c>
+      <c r="T9">
+        <v>0.9100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.21</v>
+      </c>
+      <c r="D10">
+        <v>3.94</v>
+      </c>
+      <c r="E10">
+        <v>0.46</v>
+      </c>
+      <c r="F10">
+        <v>0.21</v>
+      </c>
+      <c r="G10">
+        <v>2.23</v>
+      </c>
+      <c r="H10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>3.94</v>
+      </c>
+      <c r="K10">
+        <v>0.21</v>
+      </c>
+      <c r="L10">
+        <v>0.46</v>
+      </c>
+      <c r="M10">
+        <v>2.2</v>
+      </c>
+      <c r="N10">
+        <v>2.2</v>
+      </c>
+      <c r="O10">
+        <v>2.21</v>
+      </c>
+      <c r="P10">
+        <v>1.536666666666667</v>
+      </c>
+      <c r="Q10">
+        <v>1.536666666666667</v>
+      </c>
+      <c r="R10">
+        <v>1.205</v>
+      </c>
+      <c r="S10">
+        <v>1.205</v>
+      </c>
+      <c r="T10">
+        <v>1.218333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9954624986232038</v>
+      </c>
+      <c r="D11">
+        <v>0.993213724390445</v>
+      </c>
+      <c r="E11">
+        <v>0.9942589894037912</v>
+      </c>
+      <c r="F11">
+        <v>0.9954624986232038</v>
+      </c>
+      <c r="G11">
+        <v>0.9934016870969857</v>
+      </c>
+      <c r="H11">
+        <v>0.993686845332701</v>
+      </c>
+      <c r="I11">
+        <v>0.995686040388355</v>
+      </c>
+      <c r="J11">
+        <v>0.993213724390445</v>
+      </c>
+      <c r="K11">
+        <v>0.9954624986232038</v>
+      </c>
+      <c r="L11">
+        <v>0.9942589894037912</v>
+      </c>
+      <c r="M11">
+        <v>0.993736356897118</v>
+      </c>
+      <c r="N11">
+        <v>0.993736356897118</v>
+      </c>
+      <c r="O11">
+        <v>0.9936248002970739</v>
+      </c>
+      <c r="P11">
+        <v>0.99431173747248</v>
+      </c>
+      <c r="Q11">
+        <v>0.99431173747248</v>
+      </c>
+      <c r="R11">
+        <v>0.994599427760161</v>
+      </c>
+      <c r="S11">
+        <v>0.994599427760161</v>
+      </c>
+      <c r="T11">
+        <v>0.9942849642059136</v>
       </c>
     </row>
   </sheetData>
